--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.660992</v>
+        <v>0.6609919999999999</v>
       </c>
       <c r="H2">
         <v>1.982976</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.6922531759786666</v>
+        <v>1.394867842218666</v>
       </c>
       <c r="R2">
-        <v>6.230278583808</v>
+        <v>12.553810579968</v>
       </c>
       <c r="S2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="T2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.660992</v>
+        <v>0.6609919999999999</v>
       </c>
       <c r="H3">
         <v>1.982976</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
         <v>0.3444120849066666</v>
       </c>
       <c r="R3">
-        <v>3.09970876416</v>
+        <v>3.099708764159999</v>
       </c>
       <c r="S3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="T3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.660992</v>
+        <v>0.6609919999999999</v>
       </c>
       <c r="H4">
         <v>1.982976</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>1.072500501504</v>
+        <v>1.365205165226667</v>
       </c>
       <c r="R4">
-        <v>9.652504513536</v>
+        <v>12.28684648704</v>
       </c>
       <c r="S4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="T4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.660992</v>
+        <v>0.6609919999999999</v>
       </c>
       <c r="H5">
         <v>1.982976</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.2423187858773334</v>
+        <v>0.5355275661653333</v>
       </c>
       <c r="R5">
-        <v>2.180869072896</v>
+        <v>4.819748095487999</v>
       </c>
       <c r="S5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="T5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
     </row>
   </sheetData>
